--- a/master_data.xlsx
+++ b/master_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U\Desktop\MASTER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U\Desktop\masterm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4F227A-3957-490B-86A0-F4C4825C4695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F41720-8ECC-4FCD-89A5-D5B5996D6490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="885" windowWidth="21465" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1875" yWindow="465" windowWidth="17040" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7270" uniqueCount="2890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7354" uniqueCount="2920">
   <si>
     <t>자재코드</t>
   </si>
@@ -8706,6 +8706,96 @@
   </si>
   <si>
     <t>2096</t>
+  </si>
+  <si>
+    <t>ZSV-00074</t>
+  </si>
+  <si>
+    <t>EP2-32856</t>
+  </si>
+  <si>
+    <t>5BY-00018</t>
+  </si>
+  <si>
+    <t>EP2-20693</t>
+  </si>
+  <si>
+    <t>EP2-20705</t>
+  </si>
+  <si>
+    <t>EP2-20789</t>
+  </si>
+  <si>
+    <t>EP2-23489</t>
+  </si>
+  <si>
+    <t>EP2-21949</t>
+  </si>
+  <si>
+    <t>EP2-23524</t>
+  </si>
+  <si>
+    <t>EP2-24080</t>
+  </si>
+  <si>
+    <t>EP2-24102</t>
+  </si>
+  <si>
+    <t>EP2-23796</t>
+  </si>
+  <si>
+    <t>EP2-23818</t>
+  </si>
+  <si>
+    <t>ZSS-00019</t>
+  </si>
+  <si>
+    <t>EP2-39013</t>
+  </si>
+  <si>
+    <t>EP2-39008</t>
+  </si>
+  <si>
+    <t>EP2-32756</t>
+  </si>
+  <si>
+    <t>EP2-32832</t>
+  </si>
+  <si>
+    <t>EP2-29818</t>
+  </si>
+  <si>
+    <t>EP2-29921</t>
+  </si>
+  <si>
+    <t>EP2-29931</t>
+  </si>
+  <si>
+    <t>EP2-29913</t>
+  </si>
+  <si>
+    <t>EP2-29917</t>
+  </si>
+  <si>
+    <t>EP2-32843</t>
+  </si>
+  <si>
+    <t>EP2-21993</t>
+  </si>
+  <si>
+    <t>EP2-26993</t>
+  </si>
+  <si>
+    <t>EP2-32974</t>
+  </si>
+  <si>
+    <t>EP2-29945</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2100</t>
   </si>
 </sst>
 </file>
@@ -9213,10 +9303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1474"/>
+  <dimension ref="A1:G1502"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A1481" workbookViewId="0">
+      <selection activeCell="E1507" sqref="E1507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -38406,6 +38496,314 @@
       </c>
       <c r="F1474" s="12" t="s">
         <v>2761</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:6">
+      <c r="A1475" t="s">
+        <v>2890</v>
+      </c>
+      <c r="B1475" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1475" s="12" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:6">
+      <c r="A1476" t="s">
+        <v>2891</v>
+      </c>
+      <c r="B1476" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1476" s="12" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:6">
+      <c r="A1477" t="s">
+        <v>2892</v>
+      </c>
+      <c r="B1477" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1477" s="12" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:6">
+      <c r="A1478" t="s">
+        <v>2893</v>
+      </c>
+      <c r="B1478" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1478" s="12" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:6">
+      <c r="A1479" t="s">
+        <v>2894</v>
+      </c>
+      <c r="B1479" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1479" s="12" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:6">
+      <c r="A1480" t="s">
+        <v>2895</v>
+      </c>
+      <c r="B1480" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1480" s="12" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:6">
+      <c r="A1481" t="s">
+        <v>2896</v>
+      </c>
+      <c r="B1481" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1481" s="12" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:6">
+      <c r="A1482" t="s">
+        <v>2897</v>
+      </c>
+      <c r="B1482" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1482" s="12" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:6">
+      <c r="A1483" t="s">
+        <v>2898</v>
+      </c>
+      <c r="B1483" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1483" s="12" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:6">
+      <c r="A1484" t="s">
+        <v>2899</v>
+      </c>
+      <c r="B1484" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1484" s="12" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:6">
+      <c r="A1485" t="s">
+        <v>2900</v>
+      </c>
+      <c r="B1485" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1485" s="12" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:6">
+      <c r="A1486" t="s">
+        <v>2901</v>
+      </c>
+      <c r="B1486" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1486" s="12" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:6">
+      <c r="A1487" t="s">
+        <v>2902</v>
+      </c>
+      <c r="B1487" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1487" s="12" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:6">
+      <c r="A1488" t="s">
+        <v>2903</v>
+      </c>
+      <c r="B1488" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1488" s="12" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:6">
+      <c r="A1489" t="s">
+        <v>2904</v>
+      </c>
+      <c r="B1489" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1489" s="12" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:6">
+      <c r="A1490" t="s">
+        <v>2905</v>
+      </c>
+      <c r="B1490" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1490" s="12" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:6">
+      <c r="A1491" t="s">
+        <v>2906</v>
+      </c>
+      <c r="B1491" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1491" s="12" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:6">
+      <c r="A1492" t="s">
+        <v>2907</v>
+      </c>
+      <c r="B1492" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1492" s="12" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:6">
+      <c r="A1493" t="s">
+        <v>2908</v>
+      </c>
+      <c r="B1493" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="F1493" s="12" t="s">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:6">
+      <c r="A1494" t="s">
+        <v>2909</v>
+      </c>
+      <c r="B1494" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1494" s="12" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:6">
+      <c r="A1495" t="s">
+        <v>2910</v>
+      </c>
+      <c r="B1495" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1495" s="12" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:6">
+      <c r="A1496" t="s">
+        <v>2911</v>
+      </c>
+      <c r="B1496" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1496" s="12" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:6">
+      <c r="A1497" t="s">
+        <v>2912</v>
+      </c>
+      <c r="B1497" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1497" s="12" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:6">
+      <c r="A1498" t="s">
+        <v>2913</v>
+      </c>
+      <c r="B1498" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1498" s="12" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:6">
+      <c r="A1499" t="s">
+        <v>2914</v>
+      </c>
+      <c r="B1499" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1499" s="12" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:6">
+      <c r="A1500" t="s">
+        <v>2915</v>
+      </c>
+      <c r="B1500" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1500" s="12" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:6">
+      <c r="A1501" t="s">
+        <v>2916</v>
+      </c>
+      <c r="B1501" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1501" s="12" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:6">
+      <c r="A1502" t="s">
+        <v>2917</v>
+      </c>
+      <c r="B1502" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1502" s="12" t="s">
+        <v>2751</v>
       </c>
     </row>
   </sheetData>

--- a/master_data.xlsx
+++ b/master_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U\Desktop\masterm\Master_Streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC504C8-025B-4D62-A8CF-E91C8EBC5696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8369C3CA-F9BD-4D9F-A622-743E407B340D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="2535" windowWidth="22845" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10005" yWindow="390" windowWidth="20985" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7381" uniqueCount="2940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7405" uniqueCount="2952">
   <si>
     <t>자재코드</t>
   </si>
@@ -8856,6 +8856,42 @@
   </si>
   <si>
     <t>RBZ00021</t>
+  </si>
+  <si>
+    <t>EP2-37042</t>
+  </si>
+  <si>
+    <t>LP13INSD P/16/256ESKU SC ZH TAIWAN</t>
+  </si>
+  <si>
+    <t>EP2-27214</t>
+  </si>
+  <si>
+    <t>SFCPRJ BC-3 CM SC KO KOREA COMM PLA</t>
+  </si>
+  <si>
+    <t>EP2-27248</t>
+  </si>
+  <si>
+    <t>SFCPRJ BC-5 CM SC KO KOREA COMM PLA</t>
+  </si>
+  <si>
+    <t>EP2-27197</t>
+  </si>
+  <si>
+    <t>SFCPRJ BC-2 CM SC KO KOREA COMM PLA</t>
+  </si>
+  <si>
+    <t>EP2-31958</t>
+  </si>
+  <si>
+    <t>LP13INSD P/16/512ESKU SC ZH TAIWAN</t>
+  </si>
+  <si>
+    <t>EP2-37439</t>
+  </si>
+  <si>
+    <t>LPT7 15IN ELI/64/1TB CM WIN11 SC KO</t>
   </si>
 </sst>
 </file>
@@ -9370,10 +9406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1502"/>
+  <dimension ref="A1:G1508"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A1489" workbookViewId="0">
+      <selection activeCell="F1503" sqref="F1503:F1508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -39111,6 +39147,126 @@
       </c>
       <c r="F1502" s="11" t="s">
         <v>2748</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:6">
+      <c r="A1503" s="2" t="s">
+        <v>2940</v>
+      </c>
+      <c r="B1503" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1503" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1503" s="2">
+        <v>0</v>
+      </c>
+      <c r="E1503" s="2" t="s">
+        <v>2941</v>
+      </c>
+      <c r="F1503" s="2">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:6">
+      <c r="A1504" s="2" t="s">
+        <v>2942</v>
+      </c>
+      <c r="B1504" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1504" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1504" s="2">
+        <v>0</v>
+      </c>
+      <c r="E1504" s="2" t="s">
+        <v>2943</v>
+      </c>
+      <c r="F1504" s="2">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:6">
+      <c r="A1505" s="2" t="s">
+        <v>2944</v>
+      </c>
+      <c r="B1505" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1505" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1505" s="2">
+        <v>0</v>
+      </c>
+      <c r="E1505" s="2" t="s">
+        <v>2945</v>
+      </c>
+      <c r="F1505" s="2">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:6">
+      <c r="A1506" s="2" t="s">
+        <v>2946</v>
+      </c>
+      <c r="B1506" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1506" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1506" s="2">
+        <v>0</v>
+      </c>
+      <c r="E1506" s="2" t="s">
+        <v>2947</v>
+      </c>
+      <c r="F1506" s="2">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:6">
+      <c r="A1507" s="2" t="s">
+        <v>2948</v>
+      </c>
+      <c r="B1507" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1507" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1507" s="2">
+        <v>0</v>
+      </c>
+      <c r="E1507" s="2" t="s">
+        <v>2949</v>
+      </c>
+      <c r="F1507" s="2">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:6">
+      <c r="A1508" s="2" t="s">
+        <v>2950</v>
+      </c>
+      <c r="B1508" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1508" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1508" s="2">
+        <v>0</v>
+      </c>
+      <c r="E1508" s="2" t="s">
+        <v>2951</v>
+      </c>
+      <c r="F1508" s="2">
+        <v>2037</v>
       </c>
     </row>
   </sheetData>

--- a/master_data.xlsx
+++ b/master_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U\Desktop\masterm\Master_Streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8369C3CA-F9BD-4D9F-A622-743E407B340D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB3F20F-8DC6-41B3-8303-2984AFD324B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10005" yWindow="390" windowWidth="20985" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3750" yWindow="2190" windowWidth="20985" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7405" uniqueCount="2952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7411" uniqueCount="2954">
   <si>
     <t>자재코드</t>
   </si>
@@ -8892,6 +8892,12 @@
   </si>
   <si>
     <t>LPT7 15IN ELI/64/1TB CM WIN11 SC KO</t>
+  </si>
+  <si>
+    <t>2095</t>
+  </si>
+  <si>
+    <t>2109</t>
   </si>
 </sst>
 </file>
@@ -8970,7 +8976,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9005,6 +9011,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9409,7 +9418,7 @@
   <dimension ref="A1:G1508"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1489" workbookViewId="0">
-      <selection activeCell="F1503" sqref="F1503:F1508"/>
+      <selection activeCell="F1489" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -39165,8 +39174,8 @@
       <c r="E1503" s="2" t="s">
         <v>2941</v>
       </c>
-      <c r="F1503" s="2">
-        <v>2095</v>
+      <c r="F1503" s="13" t="s">
+        <v>2952</v>
       </c>
     </row>
     <row r="1504" spans="1:6">
@@ -39185,8 +39194,8 @@
       <c r="E1504" s="2" t="s">
         <v>2943</v>
       </c>
-      <c r="F1504" s="2">
-        <v>2109</v>
+      <c r="F1504" s="13" t="s">
+        <v>2953</v>
       </c>
     </row>
     <row r="1505" spans="1:6">
@@ -39205,8 +39214,8 @@
       <c r="E1505" s="2" t="s">
         <v>2945</v>
       </c>
-      <c r="F1505" s="2">
-        <v>2109</v>
+      <c r="F1505" s="13" t="s">
+        <v>2953</v>
       </c>
     </row>
     <row r="1506" spans="1:6">
@@ -39225,8 +39234,8 @@
       <c r="E1506" s="2" t="s">
         <v>2947</v>
       </c>
-      <c r="F1506" s="2">
-        <v>2109</v>
+      <c r="F1506" s="13" t="s">
+        <v>2953</v>
       </c>
     </row>
     <row r="1507" spans="1:6">
@@ -39245,8 +39254,8 @@
       <c r="E1507" s="2" t="s">
         <v>2949</v>
       </c>
-      <c r="F1507" s="2">
-        <v>2095</v>
+      <c r="F1507" s="13" t="s">
+        <v>2952</v>
       </c>
     </row>
     <row r="1508" spans="1:6">
@@ -39265,8 +39274,8 @@
       <c r="E1508" s="2" t="s">
         <v>2951</v>
       </c>
-      <c r="F1508" s="2">
-        <v>2037</v>
+      <c r="F1508" s="13" t="s">
+        <v>2875</v>
       </c>
     </row>
   </sheetData>
